--- a/RUDN/Importance/Varible_f_reg_in_Eastern Asia.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Eastern Asia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="251">
   <si>
     <t>F-value</t>
   </si>
@@ -22,6 +22,15 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
@@ -34,472 +43,661 @@
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
     <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, male (% of male population)</t>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
   </si>
   <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
     <t>Population ages 65-69, female (% of female population)</t>
   </si>
   <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Fixed telephone subscriptions (per 100 people)</t>
+    <t>Population ages 55-59, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
+  </si>
+  <si>
     <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 55-59, male (% of male population)</t>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
   </si>
   <si>
     <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
     <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 20-24, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, male (% of cohort)</t>
   </si>
   <si>
     <t>Population ages 65 and above, female (% of total)</t>
   </si>
   <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+    <t>People practicing open defecation (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
   </si>
   <si>
     <t>Population ages 10-14, female (% of female population)</t>
   </si>
   <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+    <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
     <t>Population ages10-14, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 15-19, female (% of female population)</t>
+  </si>
+  <si>
     <t>Age dependency ratio, old</t>
   </si>
   <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, female (% of female population)</t>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
   </si>
   <si>
     <t>Population ages 80 and older, male (% of male population)</t>
   </si>
   <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
     <t>Population growth (annual %)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
   </si>
   <si>
     <t>Population ages 80 and older, female (% of female population)</t>
   </si>
   <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
+    <t>Population ages 00-04, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
+    <t>People using safely managed sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
-    <t>Population ages 00-04, male (% of male population)</t>
-  </si>
-  <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
-    <t>Rural population growth (annual %)</t>
+    <t>Health expenditure, total (current US$)</t>
   </si>
   <si>
     <t>GDP per capita (Current US$)</t>
   </si>
   <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
     <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
     <t>Women's share of population ages 15+ living with HIV (%)</t>
   </si>
   <si>
+    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of HIV, male (% ages 15-24)</t>
+  </si>
+  <si>
     <t>Prevalence of HIV, female (% ages 15-24)</t>
   </si>
   <si>
-    <t>Prevalence of HIV, male (% ages 15-24)</t>
-  </si>
-  <si>
-    <t>Prevalence of HIV, total (% of population ages 15-49)</t>
+    <t>AIDS estimated deaths (UNAIDS estimates)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) newly infected with HIV</t>
   </si>
   <si>
     <t>Incidence of HIV (% of uninfected population ages 15-49)</t>
   </si>
   <si>
-    <t>AIDS estimated deaths (UNAIDS estimates)</t>
-  </si>
-  <si>
-    <t>Adults (ages 15+) newly infected with HIV</t>
-  </si>
-  <si>
     <t>Adults (ages 15+) and children (ages 0-14) newly infected with HIV</t>
   </si>
   <si>
+    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
+  </si>
+  <si>
+    <t>Agricultural support estimate (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% net)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
+  </si>
+  <si>
+    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+  </si>
+  <si>
     <t>Antiretroviral therapy coverage (% of people living with HIV)</t>
   </si>
   <si>
+    <t>Access to anti-retroviral drugs, male (%)</t>
+  </si>
+  <si>
     <t>Access to anti-retroviral drugs, female (%)</t>
   </si>
   <si>
-    <t>Access to anti-retroviral drugs, male (%)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
+    <t>Tertiary education, academic staff (% female)</t>
+  </si>
+  <si>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
   </si>
   <si>
     <t>Immunization, HepB3 (% of one-year-old children)</t>
   </si>
   <si>
+    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Government expenditure per student, primary (% of GDP per capita)</t>
+  </si>
+  <si>
+    <t>People using safely managed drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Public spending on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% net)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (% of GNI)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, total (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to last grade of primary, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Persistence to grade 5, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
+  </si>
+  <si>
+    <t>Self-employed, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Self-employed, total (% of total employment)</t>
+  </si>
+  <si>
+    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
+  </si>
+  <si>
+    <t>Self-employed, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Bilateral ODA commitments that is untied (current US$)</t>
+  </si>
+  <si>
+    <t>Total bilateral ODA commitments (current US$)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (current US$)</t>
+  </si>
+  <si>
+    <t>Net ODA provided, total (constant 2015 US$)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
   </si>
   <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
-    <t>Adjusted net enrollment rate, primary, female (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>Adjusted net enrollment rate, primary, male (% of primary school age children)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% net)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Adults (ages 15+) living with HIV</t>
   </si>
   <si>
     <t>Adults (ages 15+) and children (0-14 years) living with HIV</t>
   </si>
   <si>
-    <t>Adults (ages 15+) living with HIV</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Tertiary education, academic staff (% female)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>People using safely managed drinking water services (% of population)</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (% of donor GNI)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (% of GNI)</t>
-  </si>
-  <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (% of bilateral ODA commitments)</t>
-  </si>
-  <si>
-    <t>Self-employed, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Self-employed, total (% of total employment)</t>
-  </si>
-  <si>
-    <t>Self-employed, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (current US$)</t>
-  </si>
-  <si>
-    <t>Net ODA provided, total (constant 2015 US$)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using safely managed sanitation services (% of population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
     <t>Total bilateral sector allocable ODA commitments (current US$)</t>
   </si>
   <si>
-    <t>Primary education, teachers (% female)</t>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Tuberculosis treatment success rate (% of new cases)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, female (%)</t>
+  </si>
+  <si>
+    <t>Gross graduation ratio, primary, male (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>GDP per unit of energy use (constant 2011 PPP $ per kg of oil equivalent)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Lower secondary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, female (% of female population)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, female</t>
   </si>
   <si>
     <t>Population ages 30-34, female (% of female population)</t>
   </si>
   <si>
-    <t>Agricultural support estimate (% of GDP)</t>
+    <t>Inflation, consumer prices (annual %)</t>
   </si>
   <si>
     <t>Urban population growth (annual %)</t>
   </si>
   <si>
-    <t>Goods (excluding arms) admitted free of tariffs from least developed countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Goods (excluding arms) admitted free of tariffs from developing countries (% total merchandise imports excluding arms)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% net)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on textile products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on clothing products from developing countries (%)</t>
-  </si>
-  <si>
-    <t>Average tariffs imposed by developed countries on agricultural products from least developed countries (%)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, female</t>
-  </si>
-  <si>
-    <t>Inflation, consumer prices (annual %)</t>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% net)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% net)</t>
+  </si>
+  <si>
+    <t>Net ODA provided to the least developed countries (current US$)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
   </si>
   <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Net intake rate in grade 1, male (% of official school-age population)</t>
-  </si>
-  <si>
-    <t>Net intake rate in grade 1, female (% of official school-age population)</t>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Children out of school, primary, male</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Energy use (kg of oil equivalent) per $1,000 GDP (constant 2011 PPP)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
   </si>
   <si>
     <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, secondary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Government expenditure per student, primary (% of GDP per capita)</t>
-  </si>
-  <si>
-    <t>Public spending on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Government expenditure on education, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>GNI, Atlas method (current US$)</t>
-  </si>
-  <si>
-    <t>Children out of school, primary, male</t>
-  </si>
-  <si>
-    <t>Net ODA provided to the least developed countries (current US$)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Vitamin A supplementation coverage rate (% of children ages 6-59 months)</t>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
   </si>
   <si>
     <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>School enrollment, secondary, female (% net)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% net)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, female (%)</t>
-  </si>
-  <si>
-    <t>Gross graduation ratio, primary, male (%)</t>
+    <t>Secondary education, pupils (% female)</t>
   </si>
   <si>
     <t>GDP growth (annual %)</t>
   </si>
   <si>
+    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
     <t>Internet users (per 100 people)</t>
   </si>
   <si>
-    <t>Bilateral, sector-allocable ODA to basic social services (current US$)</t>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
   </si>
   <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, male (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, total (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to last grade of primary, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Persistence to grade 5, female (% of cohort)</t>
-  </si>
-  <si>
-    <t>Bilateral ODA commitments that is untied (% of bilateral ODA commitments)</t>
+    <t>Population ages 45-49, male (% of male population)</t>
+  </si>
+  <si>
+    <t>School enrollment, tertiary, male (% gross)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Prevalence of syphilis (% of women attending antenatal care)</t>
   </si>
   <si>
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Bilateral ODA commitments that is untied (current US$)</t>
-  </si>
-  <si>
-    <t>Total bilateral ODA commitments (current US$)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Population ages 45-49, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
     <t>Unemployment, total (% of total labor force)</t>
   </si>
   <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Lower secondary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
+  </si>
+  <si>
+    <t>Employers, male (% of male employment)</t>
+  </si>
+  <si>
+    <t>Employers, female (% of female employment)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
@@ -508,37 +706,13 @@
     <t>Unemployment, male (% of male labor force)</t>
   </si>
   <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
     <t>Wage and salaried workers, male (% of male employment)</t>
   </si>
   <si>
     <t>Wage and salaried workers, female (% of female employment)</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employers, male (% of male employment)</t>
-  </si>
-  <si>
-    <t>Employers, female (% of female employment)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (national estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Prevalence of syphilis (% of women attending antenatal care)</t>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
     <t>Contributing family workers, male (% of male employment)</t>
@@ -550,6 +724,12 @@
     <t>Contributing family workers, female (% of female employment)</t>
   </si>
   <si>
+    <t>Unemployment with advanced education, male (% of male labor force with advanced education)</t>
+  </si>
+  <si>
+    <t>Unemployment with advanced education, female (% of female labor force with advanced education)</t>
+  </si>
+  <si>
     <t>Unemployment, female (% of female labor force) (national estimate)</t>
   </si>
   <si>
@@ -562,12 +742,15 @@
     <t>Unemployment, youth female (% of female labor force ages 15-24) (national estimate)</t>
   </si>
   <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Ratio of female to male youth unemployment rate (%) (national estimate)</t>
   </si>
   <si>
-    <t>Mobile cellular subscriptions (per 100 people)</t>
-  </si>
-  <si>
     <t>Own-account workers, female (% of females employed)</t>
   </si>
   <si>
@@ -583,34 +766,7 @@
     <t>Vulnerable employment, male (% of male employment)</t>
   </si>
   <si>
-    <t>Unemployment with basic education, female (% of female labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with basic education, male (% of male labor force with basic education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, female (% of female labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Unemployment with intermediate education, male (% of male labor force with intermediate education)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
-  </si>
-  <si>
     <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
   </si>
 </sst>
 </file>
@@ -968,7 +1124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C198"/>
+  <dimension ref="A1:C250"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -987,7 +1143,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>784.2224891719572</v>
+        <v>2296.654117039775</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -998,7 +1154,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>774.5594435215153</v>
+        <v>1717.829271028088</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1009,7 +1165,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>774.5594435215153</v>
+        <v>937.301785873034</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1020,7 +1176,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>735.9281467540198</v>
+        <v>867.1582596414954</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1031,7 +1187,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>643.0840450444675</v>
+        <v>843.3342623816897</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1042,7 +1198,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>537.3910579698379</v>
+        <v>843.3342623816897</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1053,7 +1209,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>502.9505787164118</v>
+        <v>787.31522274694</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1064,7 +1220,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>491.0098392816616</v>
+        <v>691.747488724654</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1075,7 +1231,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>488.3813320192319</v>
+        <v>639.4151160485372</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1086,7 +1242,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>462.4785143936008</v>
+        <v>628.1600675792938</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1097,7 +1253,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>433.8425954179272</v>
+        <v>625.5556809789033</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1108,7 +1264,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>432.6551088638001</v>
+        <v>609.7205069349707</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1119,7 +1275,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>393.1144534917537</v>
+        <v>590.3384383037662</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1130,7 +1286,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>384.4773119154581</v>
+        <v>570.2458522302467</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1141,7 +1297,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>372.1148777907573</v>
+        <v>559.1734625114736</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1152,7 +1308,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>371.1568878766781</v>
+        <v>547.3366609306107</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1163,7 +1319,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>345.932678332422</v>
+        <v>488.2926727097287</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1174,7 +1330,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>319.5172630903957</v>
+        <v>443.963806802771</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1185,7 +1341,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>308.2038247844948</v>
+        <v>436.4841364890704</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1196,7 +1352,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>307.5620528729224</v>
+        <v>423.2126236962114</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1207,7 +1363,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>290.6713678300466</v>
+        <v>412.9376730953597</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1218,7 +1374,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>286.318108473596</v>
+        <v>409.1382998770775</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1229,7 +1385,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>276.9457736147705</v>
+        <v>387.5993698005817</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1240,7 +1396,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>274.6269053511261</v>
+        <v>370.8286269715441</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1251,7 +1407,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>262.0368029377416</v>
+        <v>356.4414433976605</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1262,7 +1418,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>238.9218446707814</v>
+        <v>352.571981846929</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1273,7 +1429,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>232.8241682394826</v>
+        <v>348.1419184765149</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1284,7 +1440,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>232.8241682394826</v>
+        <v>347.1906398010694</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1295,7 +1451,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>227.0767043745414</v>
+        <v>325.4624469567737</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1306,7 +1462,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>223.4321493097374</v>
+        <v>313.5104459197315</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1317,7 +1473,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>223.3780481331441</v>
+        <v>306.8126576565954</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1328,7 +1484,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>198.1012416822877</v>
+        <v>301.4359932927049</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1339,7 +1495,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>193.432957753209</v>
+        <v>295.2496507625226</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1350,7 +1506,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>188.2434508089861</v>
+        <v>285.618185904802</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1361,7 +1517,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>180.3390749103808</v>
+        <v>282.624134971549</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1372,7 +1528,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>174.5837328930963</v>
+        <v>272.18294589995</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1383,7 +1539,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>171.3365591456318</v>
+        <v>268.7533179843441</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1394,7 +1550,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>151.086861860382</v>
+        <v>264.0282912998812</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1405,7 +1561,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>141.7209393295353</v>
+        <v>262.4940721185143</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1416,7 +1572,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>136.256256951891</v>
+        <v>262.3910616081341</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1427,7 +1583,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>134.9818309191871</v>
+        <v>252.0567367147755</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1438,7 +1594,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>134.4632111724259</v>
+        <v>245.4722430951687</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1449,7 +1605,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>131.2550990483327</v>
+        <v>240.2313252744797</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1460,7 +1616,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>130.7612011373453</v>
+        <v>240.2313252744797</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1471,7 +1627,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>128.2391788853758</v>
+        <v>232.215363456373</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1482,7 +1638,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>117.4353141161467</v>
+        <v>230.6422233573186</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1493,7 +1649,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>110.7778719337124</v>
+        <v>225.084686716873</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1504,7 +1660,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>109.6558233318522</v>
+        <v>218.4641479467928</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1515,7 +1671,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>109.6558233318522</v>
+        <v>215.7686284459288</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1526,7 +1682,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>109.6558233318522</v>
+        <v>209.0685842465524</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1537,7 +1693,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>109.6558233318517</v>
+        <v>201.7741666075423</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1548,7 +1704,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>109.6558233318517</v>
+        <v>197.3192600564403</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1559,7 +1715,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>109.6558233318517</v>
+        <v>178.3404534020709</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1570,7 +1726,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>109.6558233318517</v>
+        <v>171.967356048121</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1581,7 +1737,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>107.8302706178045</v>
+        <v>165.7985956132247</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1592,7 +1748,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>107.8050236493606</v>
+        <v>163.2254144500838</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1603,7 +1759,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>107.8021700355065</v>
+        <v>161.9505465768258</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1614,7 +1770,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>106.8157626286167</v>
+        <v>159.9545808674401</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1625,7 +1781,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>105.2172211564097</v>
+        <v>159.4402390934415</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1636,7 +1792,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>104.2871011202089</v>
+        <v>151.7373942163983</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1647,7 +1803,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>104.2852842374146</v>
+        <v>148.1876779036984</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1658,7 +1814,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>104.2846875137022</v>
+        <v>147.6992167915626</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1669,7 +1825,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>89.30048180269961</v>
+        <v>147.5546282933166</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1680,7 +1836,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>86.24150962654292</v>
+        <v>147.5546282933166</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1691,7 +1847,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>86.15148665344761</v>
+        <v>139.8066622557279</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1702,7 +1858,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>86.02031043788242</v>
+        <v>139.550762944443</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1713,7 +1869,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>85.96732323913101</v>
+        <v>132.6398500742219</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1724,7 +1880,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>85.94860397351002</v>
+        <v>129.4780105291156</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1735,7 +1891,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>84.9999855060307</v>
+        <v>126.3773760933263</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1746,7 +1902,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>84.9999855060307</v>
+        <v>126.1965920170963</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1757,7 +1913,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>78.10947996820111</v>
+        <v>121.9367953078313</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1768,7 +1924,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>71.82269052388109</v>
+        <v>121.9367953078313</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1779,7 +1935,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>70.33975886860767</v>
+        <v>121.3872969172398</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1790,7 +1946,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>69.57764130099397</v>
+        <v>121.1639894308256</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1801,7 +1957,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>69.53324093612294</v>
+        <v>119.1003861179561</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1812,7 +1968,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>69.52968352631476</v>
+        <v>117.0071506659138</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1823,7 +1979,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>69.52899967747382</v>
+        <v>115.2299100572005</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1834,7 +1990,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>69.51957590718284</v>
+        <v>115.0373080377559</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1845,7 +2001,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>69.50269663151431</v>
+        <v>109.4269211708481</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1856,7 +2012,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>69.48929482658971</v>
+        <v>109.085503054759</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1867,7 +2023,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>69.47096937641388</v>
+        <v>109.0767531298525</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1878,7 +2034,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>67.87857922462189</v>
+        <v>107.3452491112511</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1889,7 +2045,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>67.82300370422132</v>
+        <v>104.9195771458568</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1900,7 +2056,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>67.48862129007713</v>
+        <v>104.4492011074857</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -1911,7 +2067,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>66.56331643310321</v>
+        <v>103.6655881189178</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -1922,7 +2078,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>65.67969833255188</v>
+        <v>103.3761348539589</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -1933,7 +2089,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>64.47049338874396</v>
+        <v>103.3761348539589</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -1944,7 +2100,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>63.71398671929239</v>
+        <v>103.3761348539589</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -1955,7 +2111,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>63.68364761335754</v>
+        <v>103.3761348539586</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -1966,7 +2122,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>62.63202169483322</v>
+        <v>103.3761348539586</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -1977,7 +2133,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>60.10137390778995</v>
+        <v>103.3761348539586</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -1988,7 +2144,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>60.08717389789933</v>
+        <v>103.3761348539586</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -1999,7 +2155,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>59.465379906012</v>
+        <v>103.1557761461048</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2010,7 +2166,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>58.62216973392474</v>
+        <v>103.0247711847256</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2021,7 +2177,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>55.99856721347301</v>
+        <v>102.9232317702236</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2032,7 +2188,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>53.01683010456614</v>
+        <v>102.8339586850756</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2043,7 +2199,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>52.33225423701435</v>
+        <v>102.7569101997701</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2054,7 +2210,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>49.65963975646979</v>
+        <v>102.6157428630183</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2065,7 +2221,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>49.5867167693515</v>
+        <v>101.9327044020139</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2076,7 +2232,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>49.45645633777001</v>
+        <v>101.8776209963929</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2087,7 +2243,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>49.45581977064155</v>
+        <v>101.8620821991123</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2098,7 +2254,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>49.45550783083572</v>
+        <v>101.8345175384884</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2109,7 +2265,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>49.45427911742918</v>
+        <v>101.8294503070562</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2120,7 +2276,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>49.45357077358106</v>
+        <v>100.2150187991225</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2131,7 +2287,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>49.44400207771604</v>
+        <v>99.10129778796781</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2142,7 +2298,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>49.43198954119035</v>
+        <v>98.99748837354822</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2153,7 +2309,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>49.10586833953589</v>
+        <v>98.50335978615698</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2164,7 +2320,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>44.82677641281553</v>
+        <v>98.50335978615698</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2175,7 +2331,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>44.81077189508613</v>
+        <v>98.31278039762358</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2186,7 +2342,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>44.25030154173312</v>
+        <v>97.75296637186331</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2197,7 +2353,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>43.9782125486869</v>
+        <v>97.59872452452316</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2208,7 +2364,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>43.74471867936051</v>
+        <v>97.44324281817808</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2219,7 +2375,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>42.34050182200051</v>
+        <v>97.3073768082608</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2230,7 +2386,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>42.33454541308798</v>
+        <v>97.23442197150493</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2241,7 +2397,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>39.82616624162709</v>
+        <v>96.88869762588699</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2252,7 +2408,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>38.33517643282767</v>
+        <v>96.65845592614359</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2263,7 +2419,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>37.96774265500795</v>
+        <v>96.44235607427474</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2274,7 +2430,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>37.96151425329435</v>
+        <v>96.28879840425702</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2285,7 +2441,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>37.95709903069159</v>
+        <v>96.28614096628692</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2296,7 +2452,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>37.95709903069159</v>
+        <v>96.26073967360496</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2307,7 +2463,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>36.32457056142116</v>
+        <v>96.24489923712756</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2318,7 +2474,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>35.88195263086415</v>
+        <v>96.24134623078277</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2329,7 +2485,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>35.45988859729179</v>
+        <v>96.24134623078277</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2340,7 +2496,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>30.65738045867565</v>
+        <v>96.23851296499214</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2351,7 +2507,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>30.05075087091503</v>
+        <v>96.23845849319494</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2362,7 +2518,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>28.58042899676027</v>
+        <v>96.23815039185379</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2373,7 +2529,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>28.22004532302745</v>
+        <v>96.23728523972113</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2384,10 +2540,10 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>27.00936192565906</v>
+        <v>96.23654092550463</v>
       </c>
       <c r="C129">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2395,10 +2551,10 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>26.78922110855465</v>
+        <v>96.23633270766189</v>
       </c>
       <c r="C130">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2406,10 +2562,10 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>26.77249798649684</v>
+        <v>96.23576706394149</v>
       </c>
       <c r="C131">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2417,10 +2573,10 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>26.77200169519072</v>
+        <v>96.23517162117271</v>
       </c>
       <c r="C132">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2428,10 +2584,10 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>23.63707870678396</v>
+        <v>96.23509870128542</v>
       </c>
       <c r="C133">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2439,10 +2595,10 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>23.63707870678396</v>
+        <v>96.23203839370683</v>
       </c>
       <c r="C134">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2450,10 +2606,10 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>22.94202667877954</v>
+        <v>96.23096037246948</v>
       </c>
       <c r="C135">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2461,10 +2617,10 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>22.91156287859571</v>
+        <v>96.22779410450715</v>
       </c>
       <c r="C136">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2472,10 +2628,10 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>21.57479973923926</v>
+        <v>96.22695396597631</v>
       </c>
       <c r="C137">
-        <v>4e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2483,10 +2639,10 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>18.80715100311456</v>
+        <v>96.22687503179571</v>
       </c>
       <c r="C138">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2494,10 +2650,10 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>18.78842359587698</v>
+        <v>96.22595066818016</v>
       </c>
       <c r="C139">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2505,10 +2661,10 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>18.21014025463264</v>
+        <v>96.22483776378891</v>
       </c>
       <c r="C140">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2516,10 +2672,10 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>18.21014025463234</v>
+        <v>96.21994378846944</v>
       </c>
       <c r="C141">
-        <v>0.00012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2527,10 +2683,10 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>17.48490859778881</v>
+        <v>96.19668451677678</v>
       </c>
       <c r="C142">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2538,10 +2694,10 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>17.48490451994441</v>
+        <v>96.19515191627715</v>
       </c>
       <c r="C143">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2549,10 +2705,10 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>17.48488950303564</v>
+        <v>96.17248461899409</v>
       </c>
       <c r="C144">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:3">
@@ -2560,10 +2716,10 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>17.48487371375139</v>
+        <v>96.15696473374689</v>
       </c>
       <c r="C145">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -2571,10 +2727,10 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>17.48487267909734</v>
+        <v>96.14137807768527</v>
       </c>
       <c r="C146">
-        <v>0.00015</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:3">
@@ -2582,10 +2738,10 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>17.41468627272963</v>
+        <v>94.67015884491397</v>
       </c>
       <c r="C147">
-        <v>0.00016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:3">
@@ -2593,10 +2749,10 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>17.07794565482356</v>
+        <v>91.68024332586991</v>
       </c>
       <c r="C148">
-        <v>0.00018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -2604,10 +2760,10 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>16.8660182945687</v>
+        <v>91.12304507771071</v>
       </c>
       <c r="C149">
-        <v>0.00019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:3">
@@ -2615,10 +2771,10 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>16.80535153655144</v>
+        <v>90.72789295054487</v>
       </c>
       <c r="C150">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:3">
@@ -2626,10 +2782,10 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>16.76069746241795</v>
+        <v>88.68478638758282</v>
       </c>
       <c r="C151">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -2637,10 +2793,10 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>16.42411653094357</v>
+        <v>88.48967831271158</v>
       </c>
       <c r="C152">
-        <v>0.00023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:3">
@@ -2648,10 +2804,10 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>14.76672505932185</v>
+        <v>86.97065478215391</v>
       </c>
       <c r="C153">
-        <v>0.00043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:3">
@@ -2659,10 +2815,10 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>14.70054256214385</v>
+        <v>85.61042490178531</v>
       </c>
       <c r="C154">
-        <v>0.00044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -2670,10 +2826,10 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>14.69014887013773</v>
+        <v>83.83257773654262</v>
       </c>
       <c r="C155">
-        <v>0.00044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:3">
@@ -2681,10 +2837,10 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>14.6810116454986</v>
+        <v>80.87146205840632</v>
       </c>
       <c r="C156">
-        <v>0.00044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:3">
@@ -2692,10 +2848,10 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>14.66618715157045</v>
+        <v>80.85906940766084</v>
       </c>
       <c r="C157">
-        <v>0.00044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -2703,10 +2859,10 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>14.64878612310072</v>
+        <v>80.45044886690627</v>
       </c>
       <c r="C158">
-        <v>0.00045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:3">
@@ -2714,10 +2870,10 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>14.64878612310072</v>
+        <v>79.90615025622211</v>
       </c>
       <c r="C159">
-        <v>0.00045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:3">
@@ -2725,10 +2881,10 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>14.63352105630372</v>
+        <v>79.90615025622211</v>
       </c>
       <c r="C160">
-        <v>0.00045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -2736,10 +2892,10 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>14.52781260433976</v>
+        <v>77.80631775121263</v>
       </c>
       <c r="C161">
-        <v>0.00047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:3">
@@ -2747,10 +2903,10 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>14.08468926048703</v>
+        <v>76.6381881746088</v>
       </c>
       <c r="C162">
-        <v>0.00056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:3">
@@ -2758,10 +2914,10 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>14.08468926048703</v>
+        <v>71.65989003270036</v>
       </c>
       <c r="C163">
-        <v>0.00056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -2769,10 +2925,10 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>12.77624077825881</v>
+        <v>66.19351544525976</v>
       </c>
       <c r="C164">
-        <v>0.0009300000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:3">
@@ -2780,10 +2936,10 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>12.63862999704878</v>
+        <v>64.4227240341083</v>
       </c>
       <c r="C165">
-        <v>0.00099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:3">
@@ -2791,10 +2947,10 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>11.88747693072832</v>
+        <v>61.64554870934872</v>
       </c>
       <c r="C166">
-        <v>0.00134</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -2802,10 +2958,10 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>11.81042181412598</v>
+        <v>59.95366761791203</v>
       </c>
       <c r="C167">
-        <v>0.00139</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:3">
@@ -2813,10 +2969,10 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>11.64638624661361</v>
+        <v>59.82282106036429</v>
       </c>
       <c r="C168">
-        <v>0.00148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:3">
@@ -2824,10 +2980,10 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>11.50976313757882</v>
+        <v>57.90132394568079</v>
       </c>
       <c r="C169">
-        <v>0.00157</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -2835,10 +2991,10 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>11.47552912410428</v>
+        <v>57.90132394567983</v>
       </c>
       <c r="C170">
-        <v>0.00159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:3">
@@ -2846,10 +3002,10 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>11.05215805465497</v>
+        <v>56.9745412076055</v>
       </c>
       <c r="C171">
-        <v>0.0019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:3">
@@ -2857,10 +3013,10 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>11.05203961340771</v>
+        <v>55.63856980359128</v>
       </c>
       <c r="C172">
-        <v>0.0019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -2868,10 +3024,10 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>10.85091452372895</v>
+        <v>54.95942547530508</v>
       </c>
       <c r="C173">
-        <v>0.00207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:3">
@@ -2879,10 +3035,10 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>10.68741477237703</v>
+        <v>52.00396807237908</v>
       </c>
       <c r="C174">
-        <v>0.00222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:3">
@@ -2890,10 +3046,10 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>10.37891658134978</v>
+        <v>49.56757629420672</v>
       </c>
       <c r="C175">
-        <v>0.00253</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -2901,10 +3057,10 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>10.35565250315648</v>
+        <v>48.3571349285342</v>
       </c>
       <c r="C176">
-        <v>0.00256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:3">
@@ -2912,10 +3068,10 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>10.34717458225634</v>
+        <v>47.71791935415629</v>
       </c>
       <c r="C177">
-        <v>0.00257</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:3">
@@ -2923,10 +3079,10 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>10.29814799151519</v>
+        <v>47.1834411481106</v>
       </c>
       <c r="C178">
-        <v>0.00262</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -2934,10 +3090,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>10.2951304071456</v>
+        <v>46.63765492491042</v>
       </c>
       <c r="C179">
-        <v>0.00263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -2945,10 +3101,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>10.18695713059036</v>
+        <v>46.37767914973519</v>
       </c>
       <c r="C180">
-        <v>0.00275</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -2956,10 +3112,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>10.09994627480066</v>
+        <v>45.39007020891774</v>
       </c>
       <c r="C181">
-        <v>0.00286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2967,10 +3123,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>9.682628314810398</v>
+        <v>41.72884729759429</v>
       </c>
       <c r="C182">
-        <v>0.00343</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -2978,10 +3134,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>9.564885557211969</v>
+        <v>41.65150167114467</v>
       </c>
       <c r="C183">
-        <v>0.00361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -2989,10 +3145,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>9.533958421700603</v>
+        <v>41.65030052893997</v>
       </c>
       <c r="C184">
-        <v>0.00366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3000,10 +3156,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>9.465476509741993</v>
+        <v>41.49756361276422</v>
       </c>
       <c r="C185">
-        <v>0.00377</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3011,10 +3167,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>9.404216422452285</v>
+        <v>40.6810974665032</v>
       </c>
       <c r="C186">
-        <v>0.00387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3022,10 +3178,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>9.391030915192957</v>
+        <v>39.74033281031226</v>
       </c>
       <c r="C187">
-        <v>0.00389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3033,10 +3189,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>9.34799491925925</v>
+        <v>39.24040761339827</v>
       </c>
       <c r="C188">
-        <v>0.00397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3044,10 +3200,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>9.319351702639064</v>
+        <v>38.17024499131496</v>
       </c>
       <c r="C189">
-        <v>0.00402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3055,10 +3211,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>9.319194070012923</v>
+        <v>37.45714850059109</v>
       </c>
       <c r="C190">
-        <v>0.00402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3066,10 +3222,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>9.316921148141018</v>
+        <v>35.77182639457539</v>
       </c>
       <c r="C191">
-        <v>0.00402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3077,10 +3233,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>9.316334171921991</v>
+        <v>34.85393072647466</v>
       </c>
       <c r="C192">
-        <v>0.00402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3088,10 +3244,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>9.117450951991955</v>
+        <v>32.60807939451341</v>
       </c>
       <c r="C193">
-        <v>0.00439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3099,10 +3255,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>8.618788811503329</v>
+        <v>32.11088506817551</v>
       </c>
       <c r="C194">
-        <v>0.00549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3110,10 +3266,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>8.359452085615821</v>
+        <v>32.10032103248302</v>
       </c>
       <c r="C195">
-        <v>0.00618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3121,10 +3277,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>7.869415866290442</v>
+        <v>30.21368372053983</v>
       </c>
       <c r="C196">
-        <v>0.00773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3132,10 +3288,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>7.815081365561944</v>
+        <v>29.71178208308386</v>
       </c>
       <c r="C197">
-        <v>0.00792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3143,10 +3299,582 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>7.476763288603573</v>
+        <v>29.38972629400568</v>
       </c>
       <c r="C198">
-        <v>0.00927</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>27.30350648551541</v>
+      </c>
+      <c r="C199">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>25.93453237098379</v>
+      </c>
+      <c r="C200">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>22.70628566420443</v>
+      </c>
+      <c r="C201">
+        <v>3e-05</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>20.54742807959293</v>
+      </c>
+      <c r="C202">
+        <v>6e-05</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>20.10225295625867</v>
+      </c>
+      <c r="C203">
+        <v>6.999999999999999e-05</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>18.2931742771007</v>
+      </c>
+      <c r="C204">
+        <v>0.00013</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>17.02427737541433</v>
+      </c>
+      <c r="C205">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>16.48493727444098</v>
+      </c>
+      <c r="C206">
+        <v>0.00024</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>16.48493727444096</v>
+      </c>
+      <c r="C207">
+        <v>0.00024</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>15.78800235945213</v>
+      </c>
+      <c r="C208">
+        <v>0.00032</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>15.22624828347345</v>
+      </c>
+      <c r="C209">
+        <v>0.00039</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>14.88228779665137</v>
+      </c>
+      <c r="C210">
+        <v>0.00044</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>14.85661466415502</v>
+      </c>
+      <c r="C211">
+        <v>0.00045</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>14.7610252409911</v>
+      </c>
+      <c r="C212">
+        <v>0.00046</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>13.33739012017955</v>
+      </c>
+      <c r="C213">
+        <v>0.0008</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>13.02403677979348</v>
+      </c>
+      <c r="C214">
+        <v>0.0009</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>11.5400844065401</v>
+      </c>
+      <c r="C215">
+        <v>0.00164</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>11.5400844065401</v>
+      </c>
+      <c r="C216">
+        <v>0.00164</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>11.25595659861146</v>
+      </c>
+      <c r="C217">
+        <v>0.00184</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>11.19341714082397</v>
+      </c>
+      <c r="C218">
+        <v>0.00189</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>11.04624248061408</v>
+      </c>
+      <c r="C219">
+        <v>0.00201</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>10.90465671584814</v>
+      </c>
+      <c r="C220">
+        <v>0.00213</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>10.90379195869329</v>
+      </c>
+      <c r="C221">
+        <v>0.00213</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>10.90102339453246</v>
+      </c>
+      <c r="C222">
+        <v>0.00214</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>10.90006900336235</v>
+      </c>
+      <c r="C223">
+        <v>0.00214</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>10.90000404074348</v>
+      </c>
+      <c r="C224">
+        <v>0.00214</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>10.89988364045759</v>
+      </c>
+      <c r="C225">
+        <v>0.00214</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>10.89164771094018</v>
+      </c>
+      <c r="C226">
+        <v>0.00214</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>10.85313655406288</v>
+      </c>
+      <c r="C227">
+        <v>0.00218</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>10.66564043409656</v>
+      </c>
+      <c r="C228">
+        <v>0.00236</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>10.66564043409656</v>
+      </c>
+      <c r="C229">
+        <v>0.00236</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>9.72452311637046</v>
+      </c>
+      <c r="C230">
+        <v>0.00351</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>9.60005400856298</v>
+      </c>
+      <c r="C231">
+        <v>0.00371</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>9.145867372140332</v>
+      </c>
+      <c r="C232">
+        <v>0.00451</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>8.607240263034477</v>
+      </c>
+      <c r="C233">
+        <v>0.00572</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>8.588233248723586</v>
+      </c>
+      <c r="C234">
+        <v>0.00577</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>8.583209641169821</v>
+      </c>
+      <c r="C235">
+        <v>0.00578</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>8.561007608929831</v>
+      </c>
+      <c r="C236">
+        <v>0.00584</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>8.551717285808937</v>
+      </c>
+      <c r="C237">
+        <v>0.00586</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>8.537992946453119</v>
+      </c>
+      <c r="C238">
+        <v>0.0059</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>8.535293676447463</v>
+      </c>
+      <c r="C239">
+        <v>0.00591</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>8.444291909107388</v>
+      </c>
+      <c r="C240">
+        <v>0.00615</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>8.366360142241682</v>
+      </c>
+      <c r="C241">
+        <v>0.00637</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>8.313048638607691</v>
+      </c>
+      <c r="C242">
+        <v>0.00652</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>8.173162422371153</v>
+      </c>
+      <c r="C243">
+        <v>0.00694</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>7.996560531887141</v>
+      </c>
+      <c r="C244">
+        <v>0.00752</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>7.865400249475773</v>
+      </c>
+      <c r="C245">
+        <v>0.007979999999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>7.809410910650112</v>
+      </c>
+      <c r="C246">
+        <v>0.008189999999999999</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>7.755323426985346</v>
+      </c>
+      <c r="C247">
+        <v>0.00839</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>7.743110382746573</v>
+      </c>
+      <c r="C248">
+        <v>0.00844</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>7.705778956179229</v>
+      </c>
+      <c r="C249">
+        <v>0.008580000000000001</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B250">
+        <v>7.617416735189994</v>
+      </c>
+      <c r="C250">
+        <v>0.00894</v>
       </c>
     </row>
   </sheetData>
